--- a/ListOfExperiments.xlsx
+++ b/ListOfExperiments.xlsx
@@ -1061,7 +1061,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="AE14" sqref="AE14"/>
+      <selection pane="bottomRight" activeCell="AI10" sqref="AI10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1232,7 +1232,7 @@
       </c>
       <c r="B2" s="1">
         <f>SUM(B3:B11)</f>
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -2105,7 +2105,7 @@
       </c>
       <c r="B5" s="1">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -2182,6 +2182,9 @@
       <c r="AC5">
         <v>1</v>
       </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
       <c r="AE5">
         <v>1</v>
       </c>
@@ -2222,7 +2225,7 @@
         <v>1</v>
       </c>
       <c r="AR5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS5">
         <v>1</v>

--- a/ListOfExperiments.xlsx
+++ b/ListOfExperiments.xlsx
@@ -1061,7 +1061,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="AI10" sqref="AI10"/>
+      <selection pane="bottomRight" activeCell="AA9" sqref="AA9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1232,7 +1232,7 @@
       </c>
       <c r="B2" s="1">
         <f>SUM(B3:B11)</f>
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -2105,7 +2105,7 @@
       </c>
       <c r="B5" s="1">
         <f t="shared" si="0"/>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -2164,6 +2164,9 @@
       <c r="V5">
         <v>1</v>
       </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
       <c r="X5">
         <v>1</v>
       </c>
@@ -2183,7 +2186,7 @@
         <v>1</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE5">
         <v>1</v>

--- a/ListOfExperiments.xlsx
+++ b/ListOfExperiments.xlsx
@@ -1061,7 +1061,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="AA9" sqref="AA9"/>
+      <selection pane="bottomRight" activeCell="AC5" sqref="AC5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1232,7 +1232,7 @@
       </c>
       <c r="B2" s="1">
         <f>SUM(B3:B11)</f>
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -2105,7 +2105,7 @@
       </c>
       <c r="B5" s="1">
         <f t="shared" si="0"/>
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -2146,6 +2146,9 @@
       <c r="O5">
         <v>1</v>
       </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
       <c r="Q5">
         <v>1</v>
       </c>
@@ -2165,7 +2168,7 @@
         <v>1</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X5">
         <v>1</v>

--- a/ListOfExperiments.xlsx
+++ b/ListOfExperiments.xlsx
@@ -1058,10 +1058,10 @@
   <dimension ref="A1:CR11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="AC5" sqref="AC5"/>
+      <selection pane="bottomRight" activeCell="W17" sqref="W17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1232,7 +1232,7 @@
       </c>
       <c r="B2" s="1">
         <f>SUM(B3:B11)</f>
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -2978,7 +2978,7 @@
       </c>
       <c r="B8" s="1">
         <f t="shared" si="0"/>
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -3035,7 +3035,7 @@
         <v>1</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V8">
         <v>0</v>
@@ -3116,7 +3116,7 @@
         <v>1</v>
       </c>
       <c r="AX8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY8">
         <v>0</v>

--- a/ListOfExperiments.xlsx
+++ b/ListOfExperiments.xlsx
@@ -1058,10 +1058,10 @@
   <dimension ref="A1:CR11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="W17" sqref="W17"/>
+      <selection pane="bottomRight" activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1232,7 +1232,7 @@
       </c>
       <c r="B2" s="1">
         <f>SUM(B3:B11)</f>
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -2105,7 +2105,7 @@
       </c>
       <c r="B5" s="1">
         <f t="shared" si="0"/>
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -2147,7 +2147,7 @@
         <v>1</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5">
         <v>1</v>
@@ -2978,7 +2978,7 @@
       </c>
       <c r="B8" s="1">
         <f t="shared" si="0"/>
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -3038,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W8">
         <v>0</v>

--- a/ListOfExperiments.xlsx
+++ b/ListOfExperiments.xlsx
@@ -1061,7 +1061,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="R9" sqref="R9"/>
+      <selection pane="bottomRight" activeCell="AR6" sqref="AR6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3099,6 +3099,9 @@
       </c>
       <c r="AQ8">
         <v>1</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
       </c>
       <c r="AS8">
         <v>1</v>

--- a/ListOfExperiments.xlsx
+++ b/ListOfExperiments.xlsx
@@ -1058,10 +1058,10 @@
   <dimension ref="A1:CR11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AV3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="AR6" sqref="AR6"/>
+      <selection pane="bottomRight" activeCell="BF10" sqref="BF10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2396,7 +2396,7 @@
       </c>
       <c r="B6" s="1">
         <f t="shared" si="0"/>
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -2543,7 +2543,7 @@
         <v>1</v>
       </c>
       <c r="AY6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
         <v>1</v>
@@ -2978,7 +2978,7 @@
       </c>
       <c r="B8" s="1">
         <f t="shared" si="0"/>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -3061,6 +3061,9 @@
       <c r="AC8">
         <v>1</v>
       </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
       <c r="AE8">
         <v>1</v>
       </c>
@@ -3143,7 +3146,7 @@
         <v>1</v>
       </c>
       <c r="BF8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG8">
         <v>1</v>

--- a/ListOfExperiments.xlsx
+++ b/ListOfExperiments.xlsx
@@ -1058,10 +1058,10 @@
   <dimension ref="A1:CR11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AV3" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="BF10" sqref="BF10"/>
+      <selection pane="bottomRight" activeCell="BK9" sqref="BK9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1232,7 +1232,7 @@
       </c>
       <c r="B2" s="1">
         <f>SUM(B3:B11)</f>
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -2396,7 +2396,7 @@
       </c>
       <c r="B6" s="1">
         <f t="shared" si="0"/>
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -2543,7 +2543,7 @@
         <v>1</v>
       </c>
       <c r="AY6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ6">
         <v>1</v>

--- a/ListOfExperiments.xlsx
+++ b/ListOfExperiments.xlsx
@@ -1058,10 +1058,10 @@
   <dimension ref="A1:CR11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AK3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="BK9" sqref="BK9"/>
+      <selection pane="bottomRight" activeCell="BU11" sqref="BU11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1232,7 +1232,7 @@
       </c>
       <c r="B2" s="1">
         <f>SUM(B3:B11)</f>
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -2978,7 +2978,7 @@
       </c>
       <c r="B8" s="1">
         <f t="shared" si="0"/>
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -3188,7 +3188,7 @@
         <v>1</v>
       </c>
       <c r="BT8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU8">
         <v>1</v>

--- a/ListOfExperiments.xlsx
+++ b/ListOfExperiments.xlsx
@@ -1058,10 +1058,10 @@
   <dimension ref="A1:CR11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AK3" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="BU11" sqref="BU11"/>
+      <selection pane="bottomRight" activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1232,7 +1232,7 @@
       </c>
       <c r="B2" s="1">
         <f>SUM(B3:B11)</f>
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -2978,7 +2978,7 @@
       </c>
       <c r="B8" s="1">
         <f t="shared" si="0"/>
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -3125,7 +3125,7 @@
         <v>1</v>
       </c>
       <c r="AY8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ8">
         <v>1</v>
@@ -3209,7 +3209,7 @@
         <v>1</v>
       </c>
       <c r="CA8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB8">
         <v>1</v>

--- a/ListOfExperiments.xlsx
+++ b/ListOfExperiments.xlsx
@@ -1061,7 +1061,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="S14" sqref="S14"/>
+      <selection pane="bottomRight" activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1232,7 +1232,7 @@
       </c>
       <c r="B2" s="1">
         <f>SUM(B3:B11)</f>
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -2978,7 +2978,7 @@
       </c>
       <c r="B8" s="1">
         <f t="shared" si="0"/>
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -3041,7 +3041,7 @@
         <v>1</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X8">
         <v>1</v>
@@ -3104,7 +3104,7 @@
         <v>1</v>
       </c>
       <c r="AR8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS8">
         <v>1</v>

--- a/ListOfExperiments.xlsx
+++ b/ListOfExperiments.xlsx
@@ -1061,7 +1061,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="O6" sqref="O6"/>
+      <selection pane="bottomRight" activeCell="X13" sqref="X13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1232,7 +1232,7 @@
       </c>
       <c r="B2" s="1">
         <f>SUM(B3:B11)</f>
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -2978,7 +2978,7 @@
       </c>
       <c r="B8" s="1">
         <f t="shared" si="0"/>
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -3062,7 +3062,7 @@
         <v>1</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE8">
         <v>1</v>

--- a/ListOfExperiments.xlsx
+++ b/ListOfExperiments.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t>_MHL_StandartBinaryGeneticAlgorithm</t>
   </si>
@@ -172,6 +172,9 @@
   </si>
   <si>
     <t>RastriginNovgorod</t>
+  </si>
+  <si>
+    <t>Bosom</t>
   </si>
 </sst>
 </file>
@@ -1055,23 +1058,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CR11"/>
+  <dimension ref="A1:CS11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AV3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="X13" sqref="X13"/>
+      <selection pane="bottomRight" activeCell="CC3" sqref="CC3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="48.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="96" width="2.7109375" customWidth="1"/>
+    <col min="3" max="97" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:96" s="3" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:97" s="3" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
       <c r="B1" s="3" t="s">
         <v>13</v>
       </c>
@@ -1178,55 +1181,58 @@
         <v>23</v>
       </c>
       <c r="CC1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="CD1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="CD1" s="3" t="s">
+      <c r="CE1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="CE1" s="3" t="s">
+      <c r="CF1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="CF1" s="3" t="s">
+      <c r="CG1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="CG1" s="3" t="s">
+      <c r="CH1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="CH1" s="3" t="s">
+      <c r="CI1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="CI1" s="3" t="s">
+      <c r="CJ1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="CJ1" s="3" t="s">
+      <c r="CK1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="CK1" s="3" t="s">
+      <c r="CL1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="CL1" s="3" t="s">
+      <c r="CM1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="CM1" s="3" t="s">
+      <c r="CN1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="CN1" s="3" t="s">
+      <c r="CO1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="CO1" s="3" t="s">
+      <c r="CP1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="CP1" s="3" t="s">
+      <c r="CQ1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="CQ1" s="3" t="s">
+      <c r="CR1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="CR1" s="3" t="s">
+      <c r="CS1" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>46</v>
       </c>
@@ -1508,7 +1514,7 @@
         <v>2</v>
       </c>
       <c r="CP2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CQ2" s="1">
         <v>1</v>
@@ -1516,13 +1522,16 @@
       <c r="CR2" s="1">
         <v>1</v>
       </c>
+      <c r="CS2" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1">
-        <f>SUM(C3:ZO3)</f>
+        <f>SUM(C3:ZP3)</f>
         <v>94</v>
       </c>
       <c r="C3">
@@ -1759,9 +1768,6 @@
       <c r="CB3">
         <v>1</v>
       </c>
-      <c r="CC3">
-        <v>1</v>
-      </c>
       <c r="CD3">
         <v>1</v>
       </c>
@@ -1807,13 +1813,16 @@
       <c r="CR3">
         <v>1</v>
       </c>
+      <c r="CS3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B11" si="0">SUM(C4:ZO4)</f>
+        <f t="shared" ref="B4:B11" si="0">SUM(C4:ZP4)</f>
         <v>94</v>
       </c>
       <c r="C4">
@@ -2050,9 +2059,6 @@
       <c r="CB4">
         <v>1</v>
       </c>
-      <c r="CC4">
-        <v>1</v>
-      </c>
       <c r="CD4">
         <v>1</v>
       </c>
@@ -2098,8 +2104,11 @@
       <c r="CR4">
         <v>1</v>
       </c>
+      <c r="CS4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -2341,9 +2350,6 @@
       <c r="CB5">
         <v>1</v>
       </c>
-      <c r="CC5">
-        <v>1</v>
-      </c>
       <c r="CD5">
         <v>1</v>
       </c>
@@ -2389,8 +2395,11 @@
       <c r="CR5">
         <v>1</v>
       </c>
+      <c r="CS5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -2632,9 +2641,6 @@
       <c r="CB6">
         <v>1</v>
       </c>
-      <c r="CC6">
-        <v>1</v>
-      </c>
       <c r="CD6">
         <v>1</v>
       </c>
@@ -2680,8 +2686,11 @@
       <c r="CR6">
         <v>1</v>
       </c>
+      <c r="CS6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -2923,9 +2932,6 @@
       <c r="CB7">
         <v>1</v>
       </c>
-      <c r="CC7">
-        <v>1</v>
-      </c>
       <c r="CD7">
         <v>1</v>
       </c>
@@ -2971,8 +2977,11 @@
       <c r="CR7">
         <v>1</v>
       </c>
+      <c r="CS7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -3214,9 +3223,6 @@
       <c r="CB8">
         <v>1</v>
       </c>
-      <c r="CC8">
-        <v>1</v>
-      </c>
       <c r="CD8">
         <v>1</v>
       </c>
@@ -3262,8 +3268,11 @@
       <c r="CR8">
         <v>1</v>
       </c>
+      <c r="CS8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -3505,9 +3514,6 @@
       <c r="CB9">
         <v>1</v>
       </c>
-      <c r="CC9">
-        <v>1</v>
-      </c>
       <c r="CD9">
         <v>1</v>
       </c>
@@ -3553,8 +3559,11 @@
       <c r="CR9">
         <v>1</v>
       </c>
+      <c r="CS9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -3796,9 +3805,6 @@
       <c r="CB10">
         <v>1</v>
       </c>
-      <c r="CC10">
-        <v>1</v>
-      </c>
       <c r="CD10">
         <v>1</v>
       </c>
@@ -3844,8 +3850,11 @@
       <c r="CR10">
         <v>1</v>
       </c>
+      <c r="CS10">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -4087,9 +4096,6 @@
       <c r="CB11">
         <v>1</v>
       </c>
-      <c r="CC11">
-        <v>1</v>
-      </c>
       <c r="CD11">
         <v>1</v>
       </c>
@@ -4133,6 +4139,9 @@
         <v>1</v>
       </c>
       <c r="CR11">
+        <v>1</v>
+      </c>
+      <c r="CS11">
         <v>1</v>
       </c>
     </row>
@@ -4150,7 +4159,7 @@
     <mergeCell ref="J1:P1"/>
     <mergeCell ref="AS1:AY1"/>
   </mergeCells>
-  <conditionalFormatting sqref="CS3:XFD1048576">
+  <conditionalFormatting sqref="CT3:XFD1048576">
     <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -4175,37 +4184,37 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CB3:CC1048576">
+  <conditionalFormatting sqref="CB3:CD1048576">
     <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CD3:CH1048576">
+  <conditionalFormatting sqref="CE3:CI1048576">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CI3:CN1048576">
+  <conditionalFormatting sqref="CJ3:CO1048576">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CO3:CO1048576">
+  <conditionalFormatting sqref="CP3:CP1048576">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CP3:CP1048576">
+  <conditionalFormatting sqref="CQ3:CQ1048576">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CQ3:CQ1048576">
+  <conditionalFormatting sqref="CR3:CR1048576">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CR3:CR1048576">
+  <conditionalFormatting sqref="CS3:CS1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>

--- a/ListOfExperiments.xlsx
+++ b/ListOfExperiments.xlsx
@@ -1064,7 +1064,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="AV3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="CC3" sqref="CC3"/>
+      <selection pane="bottomRight" activeCell="CC7" sqref="CC7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="B2" s="1">
         <f>SUM(B3:B11)</f>
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -1532,7 +1532,7 @@
       </c>
       <c r="B3" s="1">
         <f>SUM(C3:ZP3)</f>
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1766,6 +1766,9 @@
         <v>1</v>
       </c>
       <c r="CB3">
+        <v>1</v>
+      </c>
+      <c r="CC3">
         <v>1</v>
       </c>
       <c r="CD3">
@@ -3569,7 +3572,7 @@
       </c>
       <c r="B10" s="1">
         <f t="shared" si="0"/>
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -3803,6 +3806,9 @@
         <v>1</v>
       </c>
       <c r="CB10">
+        <v>1</v>
+      </c>
+      <c r="CC10">
         <v>1</v>
       </c>
       <c r="CD10">

--- a/ListOfExperiments.xlsx
+++ b/ListOfExperiments.xlsx
@@ -1064,7 +1064,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="AV3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="CC7" sqref="CC7"/>
+      <selection pane="bottomRight" activeCell="CC5" sqref="CC5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="B2" s="1">
         <f>SUM(B3:B11)</f>
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -1826,7 +1826,7 @@
       </c>
       <c r="B4" s="1">
         <f t="shared" ref="B4:B11" si="0">SUM(C4:ZP4)</f>
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -2060,6 +2060,9 @@
         <v>1</v>
       </c>
       <c r="CB4">
+        <v>1</v>
+      </c>
+      <c r="CC4">
         <v>1</v>
       </c>
       <c r="CD4">

--- a/ListOfExperiments.xlsx
+++ b/ListOfExperiments.xlsx
@@ -1064,7 +1064,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="AV3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="CC5" sqref="CC5"/>
+      <selection pane="bottomRight" activeCell="CF11" sqref="CF11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="B2" s="1">
         <f>SUM(B3:B11)</f>
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -2702,7 +2702,7 @@
       </c>
       <c r="B7" s="1">
         <f t="shared" si="0"/>
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -2936,6 +2936,9 @@
         <v>1</v>
       </c>
       <c r="CB7">
+        <v>1</v>
+      </c>
+      <c r="CC7">
         <v>1</v>
       </c>
       <c r="CD7">

--- a/ListOfExperiments.xlsx
+++ b/ListOfExperiments.xlsx
@@ -1064,7 +1064,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="AV3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="CF11" sqref="CF11"/>
+      <selection pane="bottomRight" activeCell="CC10" sqref="CC10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="B2" s="1">
         <f>SUM(B3:B11)</f>
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -3287,7 +3287,7 @@
       </c>
       <c r="B9" s="1">
         <f t="shared" si="0"/>
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -3521,6 +3521,9 @@
         <v>1</v>
       </c>
       <c r="CB9">
+        <v>1</v>
+      </c>
+      <c r="CC9">
         <v>1</v>
       </c>
       <c r="CD9">

--- a/ListOfExperiments.xlsx
+++ b/ListOfExperiments.xlsx
@@ -1064,7 +1064,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="AV3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="CC10" sqref="CC10"/>
+      <selection pane="bottomRight" activeCell="BV8" sqref="BV8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="B2" s="1">
         <f>SUM(B3:B11)</f>
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -2996,7 +2996,7 @@
       </c>
       <c r="B8" s="1">
         <f t="shared" si="0"/>
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -3230,6 +3230,9 @@
         <v>1</v>
       </c>
       <c r="CB8">
+        <v>1</v>
+      </c>
+      <c r="CC8">
         <v>1</v>
       </c>
       <c r="CD8">

--- a/ListOfExperiments.xlsx
+++ b/ListOfExperiments.xlsx
@@ -1064,7 +1064,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="AV3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="BV8" sqref="BV8"/>
+      <selection pane="bottomRight" activeCell="BY14" sqref="BY14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="B2" s="1">
         <f>SUM(B3:B11)</f>
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -3878,7 +3878,7 @@
       </c>
       <c r="B11" s="1">
         <f t="shared" si="0"/>
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -4112,6 +4112,9 @@
         <v>1</v>
       </c>
       <c r="CB11">
+        <v>1</v>
+      </c>
+      <c r="CC11">
         <v>1</v>
       </c>
       <c r="CD11">

--- a/ListOfExperiments.xlsx
+++ b/ListOfExperiments.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
   <si>
     <t>_MHL_StandartBinaryGeneticAlgorithm</t>
   </si>
@@ -175,6 +175,12 @@
   </si>
   <si>
     <t>Bosom</t>
+  </si>
+  <si>
+    <t>MHL_RealGeneticAlgorithmTwiceGenerations</t>
+  </si>
+  <si>
+    <t>MHL_BinaryGeneticAlgorithmTwiceGenerations</t>
   </si>
 </sst>
 </file>
@@ -621,13 +627,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="M6" sqref="M6"/>
+      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -735,7 +741,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B11" si="0">SUM(C4:XX4)</f>
+        <f t="shared" ref="B4:B12" si="0">SUM(C4:XX4)</f>
         <v>10</v>
       </c>
       <c r="C4">
@@ -1039,6 +1045,45 @@
         <v>1</v>
       </c>
       <c r="L11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
         <v>1</v>
       </c>
     </row>
@@ -1058,13 +1103,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CS11"/>
+  <dimension ref="A1:CS12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AV3" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="BY14" sqref="BY14"/>
+      <selection pane="bottomRight" activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1825,7 +1870,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B11" si="0">SUM(C4:ZP4)</f>
+        <f t="shared" ref="B4:B12" si="0">SUM(C4:ZP4)</f>
         <v>95</v>
       </c>
       <c r="C4">
@@ -4163,6 +4208,123 @@
         <v>1</v>
       </c>
       <c r="CS11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:97" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="1">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="X12">
+        <v>1</v>
+      </c>
+      <c r="Y12">
+        <v>1</v>
+      </c>
+      <c r="Z12">
+        <v>1</v>
+      </c>
+      <c r="AA12">
+        <v>1</v>
+      </c>
+      <c r="AB12">
+        <v>1</v>
+      </c>
+      <c r="AD12">
+        <v>1</v>
+      </c>
+      <c r="AE12">
+        <v>1</v>
+      </c>
+      <c r="AF12">
+        <v>1</v>
+      </c>
+      <c r="AG12">
+        <v>1</v>
+      </c>
+      <c r="AH12">
+        <v>1</v>
+      </c>
+      <c r="AI12">
+        <v>1</v>
+      </c>
+      <c r="AL12">
+        <v>1</v>
+      </c>
+      <c r="AM12">
+        <v>1</v>
+      </c>
+      <c r="AN12">
+        <v>1</v>
+      </c>
+      <c r="AO12">
+        <v>1</v>
+      </c>
+      <c r="AP12">
+        <v>1</v>
+      </c>
+      <c r="AZ12">
+        <v>1</v>
+      </c>
+      <c r="BA12">
+        <v>1</v>
+      </c>
+      <c r="BB12">
+        <v>1</v>
+      </c>
+      <c r="BC12">
+        <v>1</v>
+      </c>
+      <c r="BD12">
+        <v>1</v>
+      </c>
+      <c r="BG12">
+        <v>1</v>
+      </c>
+      <c r="BH12">
+        <v>1</v>
+      </c>
+      <c r="BI12">
+        <v>1</v>
+      </c>
+      <c r="BJ12">
+        <v>1</v>
+      </c>
+      <c r="BK12">
+        <v>1</v>
+      </c>
+      <c r="BL12">
+        <v>1</v>
+      </c>
+      <c r="CB12">
+        <v>1</v>
+      </c>
+      <c r="CJ12">
+        <v>1</v>
+      </c>
+      <c r="CN12">
         <v>1</v>
       </c>
     </row>

--- a/ListOfExperiments.xlsx
+++ b/ListOfExperiments.xlsx
@@ -1109,7 +1109,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="K16" sqref="K16"/>
+      <selection pane="bottomRight" activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4217,7 +4217,7 @@
       </c>
       <c r="B12" s="1">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -4252,7 +4252,7 @@
       <c r="AB12">
         <v>1</v>
       </c>
-      <c r="AD12">
+      <c r="AC12">
         <v>1</v>
       </c>
       <c r="AE12">
@@ -4270,6 +4270,9 @@
       <c r="AI12">
         <v>1</v>
       </c>
+      <c r="AJ12">
+        <v>1</v>
+      </c>
       <c r="AL12">
         <v>1</v>
       </c>
@@ -4285,6 +4288,9 @@
       <c r="AP12">
         <v>1</v>
       </c>
+      <c r="AQ12">
+        <v>1</v>
+      </c>
       <c r="AZ12">
         <v>1</v>
       </c>
@@ -4298,6 +4304,9 @@
         <v>1</v>
       </c>
       <c r="BD12">
+        <v>1</v>
+      </c>
+      <c r="BE12">
         <v>1</v>
       </c>
       <c r="BG12">

--- a/ListOfExperiments.xlsx
+++ b/ListOfExperiments.xlsx
@@ -1109,7 +1109,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="K14" sqref="K14"/>
+      <selection pane="bottomRight" activeCell="BL16" sqref="BL16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4217,7 +4217,7 @@
       </c>
       <c r="B12" s="1">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -4237,6 +4237,9 @@
       <c r="H12">
         <v>1</v>
       </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
       <c r="X12">
         <v>1</v>
       </c>
@@ -4325,6 +4328,9 @@
         <v>1</v>
       </c>
       <c r="BL12">
+        <v>1</v>
+      </c>
+      <c r="BM12">
         <v>1</v>
       </c>
       <c r="CB12">

--- a/ListOfExperiments.xlsx
+++ b/ListOfExperiments.xlsx
@@ -1109,7 +1109,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="BL16" sqref="BL16"/>
+      <selection pane="bottomRight" activeCell="AB16" sqref="AB16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4217,7 +4217,7 @@
       </c>
       <c r="B12" s="1">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -4240,6 +4240,42 @@
       <c r="I12">
         <v>1</v>
       </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <v>1</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
+      <c r="U12">
+        <v>1</v>
+      </c>
+      <c r="V12">
+        <v>1</v>
+      </c>
       <c r="X12">
         <v>1</v>
       </c>
@@ -4258,6 +4294,9 @@
       <c r="AC12">
         <v>1</v>
       </c>
+      <c r="AD12">
+        <v>1</v>
+      </c>
       <c r="AE12">
         <v>1</v>
       </c>
@@ -4276,6 +4315,9 @@
       <c r="AJ12">
         <v>1</v>
       </c>
+      <c r="AK12">
+        <v>1</v>
+      </c>
       <c r="AL12">
         <v>1</v>
       </c>
@@ -4294,6 +4336,24 @@
       <c r="AQ12">
         <v>1</v>
       </c>
+      <c r="AR12">
+        <v>1</v>
+      </c>
+      <c r="AS12">
+        <v>1</v>
+      </c>
+      <c r="AT12">
+        <v>1</v>
+      </c>
+      <c r="AU12">
+        <v>1</v>
+      </c>
+      <c r="AV12">
+        <v>1</v>
+      </c>
+      <c r="AW12">
+        <v>1</v>
+      </c>
       <c r="AZ12">
         <v>1</v>
       </c>
@@ -4312,6 +4372,9 @@
       <c r="BE12">
         <v>1</v>
       </c>
+      <c r="BF12">
+        <v>1</v>
+      </c>
       <c r="BG12">
         <v>1</v>
       </c>
@@ -4333,13 +4396,94 @@
       <c r="BM12">
         <v>1</v>
       </c>
+      <c r="BN12">
+        <v>1</v>
+      </c>
+      <c r="BO12">
+        <v>1</v>
+      </c>
+      <c r="BP12">
+        <v>1</v>
+      </c>
+      <c r="BQ12">
+        <v>1</v>
+      </c>
+      <c r="BR12">
+        <v>1</v>
+      </c>
+      <c r="BS12">
+        <v>1</v>
+      </c>
+      <c r="BU12">
+        <v>1</v>
+      </c>
+      <c r="BV12">
+        <v>1</v>
+      </c>
+      <c r="BW12">
+        <v>1</v>
+      </c>
+      <c r="BX12">
+        <v>1</v>
+      </c>
+      <c r="BY12">
+        <v>1</v>
+      </c>
+      <c r="BZ12">
+        <v>1</v>
+      </c>
       <c r="CB12">
         <v>1</v>
       </c>
+      <c r="CC12">
+        <v>1</v>
+      </c>
+      <c r="CD12">
+        <v>1</v>
+      </c>
+      <c r="CE12">
+        <v>1</v>
+      </c>
+      <c r="CF12">
+        <v>1</v>
+      </c>
+      <c r="CG12">
+        <v>1</v>
+      </c>
+      <c r="CH12">
+        <v>1</v>
+      </c>
+      <c r="CI12">
+        <v>1</v>
+      </c>
       <c r="CJ12">
         <v>1</v>
       </c>
+      <c r="CK12">
+        <v>1</v>
+      </c>
+      <c r="CL12">
+        <v>1</v>
+      </c>
+      <c r="CM12">
+        <v>1</v>
+      </c>
       <c r="CN12">
+        <v>1</v>
+      </c>
+      <c r="CO12">
+        <v>1</v>
+      </c>
+      <c r="CP12">
+        <v>1</v>
+      </c>
+      <c r="CQ12">
+        <v>1</v>
+      </c>
+      <c r="CR12">
+        <v>1</v>
+      </c>
+      <c r="CS12">
         <v>1</v>
       </c>
     </row>

--- a/ListOfExperiments.xlsx
+++ b/ListOfExperiments.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox\Dropbox\GitHub\HarrixDataOfOptimizationTesting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\GitHub\HarrixDataOfOptimizationTesting\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -45,33 +45,9 @@
     <t>MHL_BinaryMonteCarloAlgorithm</t>
   </si>
   <si>
-    <t>_MHL_StandartRealGeneticAlgorithm</t>
-  </si>
-  <si>
-    <t>_MHL_StandartRealGeneticAlgorithm - Повторные исследования</t>
-  </si>
-  <si>
-    <t>_MHL_StandartRealGeneticAlgorithm - Проверка на других компьютерах</t>
-  </si>
-  <si>
-    <t>MHL_RealGeneticAlgorithmWCC</t>
-  </si>
-  <si>
-    <t>MHL_RealGeneticAlgorithmWDPOfNOfGPS</t>
-  </si>
-  <si>
-    <t>MHL_RealGeneticAlgorithmWDTS</t>
-  </si>
-  <si>
-    <t>MHL_RealMonteCarloAlgorithm</t>
-  </si>
-  <si>
     <t>Итого</t>
   </si>
   <si>
-    <t>_MHL_StandartRealGeneticAlgorithm - Стандартный генератор случайных чисел</t>
-  </si>
-  <si>
     <t>_MHL_StandartBinaryGeneticAlgorithm - Проверка на других компьютерах</t>
   </si>
   <si>
@@ -81,9 +57,6 @@
     <t>MHL_BinaryGeneticAlgorithmTournamentSelectionWithReturn</t>
   </si>
   <si>
-    <t>MHL_RealGeneticAlgorithmTournamentSelectionWithReturn</t>
-  </si>
-  <si>
     <t>Ackley</t>
   </si>
   <si>
@@ -177,10 +150,37 @@
     <t>Bosom</t>
   </si>
   <si>
-    <t>MHL_RealGeneticAlgorithmTwiceGenerations</t>
-  </si>
-  <si>
     <t>MHL_BinaryGeneticAlgorithmTwiceGenerations</t>
+  </si>
+  <si>
+    <t>_HML_StandartRealGeneticAlgorithm</t>
+  </si>
+  <si>
+    <t>_HML_StandartRealGeneticAlgorithm - Повторные исследования</t>
+  </si>
+  <si>
+    <t>_HML_StandartRealGeneticAlgorithm - Проверка на других компьютерах</t>
+  </si>
+  <si>
+    <t>_HML_StandartRealGeneticAlgorithm - Стандартный генератор случайных чисел</t>
+  </si>
+  <si>
+    <t>HML_RealGeneticAlgorithmWCC</t>
+  </si>
+  <si>
+    <t>HML_RealGeneticAlgorithmWDPOfNOfGPS</t>
+  </si>
+  <si>
+    <t>HML_RealGeneticAlgorithmWDTS</t>
+  </si>
+  <si>
+    <t>HML_RealMonteCarloAlgorithm</t>
+  </si>
+  <si>
+    <t>HML_RealGeneticAlgorithmTournamentSelectionWithReturn</t>
+  </si>
+  <si>
+    <t>HML_RealGeneticAlgorithmTwiceGenerations</t>
   </si>
 </sst>
 </file>
@@ -646,10 +646,10 @@
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -777,7 +777,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1">
         <f t="shared" si="0"/>
@@ -816,7 +816,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1">
         <f t="shared" si="0"/>
@@ -1011,7 +1011,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <f t="shared" si="0"/>
@@ -1050,7 +1050,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B12" s="1">
         <f t="shared" si="0"/>
@@ -1121,10 +1121,10 @@
   <sheetData>
     <row r="1" spans="1:97" s="3" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
       <c r="B1" s="3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
@@ -1133,7 +1133,7 @@
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
@@ -1142,7 +1142,7 @@
       <c r="O1" s="5"/>
       <c r="P1" s="5"/>
       <c r="Q1" s="5" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="R1" s="5"/>
       <c r="S1" s="5"/>
@@ -1151,7 +1151,7 @@
       <c r="V1" s="5"/>
       <c r="W1" s="5"/>
       <c r="X1" s="5" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="Y1" s="5"/>
       <c r="Z1" s="5"/>
@@ -1160,7 +1160,7 @@
       <c r="AC1" s="5"/>
       <c r="AD1" s="5"/>
       <c r="AE1" s="5" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="AF1" s="5"/>
       <c r="AG1" s="5"/>
@@ -1169,7 +1169,7 @@
       <c r="AJ1" s="5"/>
       <c r="AK1" s="5"/>
       <c r="AL1" s="5" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="AM1" s="5"/>
       <c r="AN1" s="5"/>
@@ -1178,7 +1178,7 @@
       <c r="AQ1" s="5"/>
       <c r="AR1" s="5"/>
       <c r="AS1" s="5" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="AT1" s="5"/>
       <c r="AU1" s="5"/>
@@ -1187,7 +1187,7 @@
       <c r="AX1" s="5"/>
       <c r="AY1" s="5"/>
       <c r="AZ1" s="5" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="BA1" s="5"/>
       <c r="BB1" s="5"/>
@@ -1196,7 +1196,7 @@
       <c r="BE1" s="5"/>
       <c r="BF1" s="5"/>
       <c r="BG1" s="5" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="BH1" s="5"/>
       <c r="BI1" s="5"/>
@@ -1205,7 +1205,7 @@
       <c r="BL1" s="5"/>
       <c r="BM1" s="5"/>
       <c r="BN1" s="5" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="BO1" s="5"/>
       <c r="BP1" s="5"/>
@@ -1214,7 +1214,7 @@
       <c r="BS1" s="5"/>
       <c r="BT1" s="5"/>
       <c r="BU1" s="5" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="BV1" s="5"/>
       <c r="BW1" s="5"/>
@@ -1223,63 +1223,63 @@
       <c r="BZ1" s="5"/>
       <c r="CA1" s="5"/>
       <c r="CB1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="CC1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="CD1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="CE1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="CF1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="CG1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="CH1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="CI1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="CJ1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="CK1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="CL1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="CM1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CN1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="CO1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="CP1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="CC1" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="CD1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="CE1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="CF1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="CG1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="CH1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="CI1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="CJ1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="CK1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="CL1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="CM1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="CN1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="CO1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="CP1" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="CQ1" s="3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="CR1" s="3" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="CS1" s="3" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B2" s="1">
         <f>SUM(B3:B11)</f>
@@ -1573,7 +1573,7 @@
     </row>
     <row r="3" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="B3" s="1">
         <f>SUM(C3:ZP3)</f>
@@ -1867,7 +1867,7 @@
     </row>
     <row r="4" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="B4" s="1">
         <f t="shared" ref="B4:B12" si="0">SUM(C4:ZP4)</f>
@@ -2161,7 +2161,7 @@
     </row>
     <row r="5" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B5" s="1">
         <f t="shared" si="0"/>
@@ -2452,7 +2452,7 @@
     </row>
     <row r="6" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="B6" s="1">
         <f t="shared" si="0"/>
@@ -2743,7 +2743,7 @@
     </row>
     <row r="7" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="B7" s="1">
         <f t="shared" si="0"/>
@@ -3037,7 +3037,7 @@
     </row>
     <row r="8" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="B8" s="1">
         <f t="shared" si="0"/>
@@ -3331,7 +3331,7 @@
     </row>
     <row r="9" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="B9" s="1">
         <f t="shared" si="0"/>
@@ -3625,7 +3625,7 @@
     </row>
     <row r="10" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="B10" s="1">
         <f t="shared" si="0"/>
@@ -3919,7 +3919,7 @@
     </row>
     <row r="11" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="B11" s="1">
         <f t="shared" si="0"/>
@@ -4213,7 +4213,7 @@
     </row>
     <row r="12" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B12" s="1">
         <f t="shared" si="0"/>
